--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lgi2</t>
   </si>
   <si>
     <t>Adam22</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.2103878213407</v>
+        <v>0.1826583333333333</v>
       </c>
       <c r="H2">
-        <v>3.2103878213407</v>
+        <v>0.547975</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05157382640662736</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05157382640662736</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.90269015534024</v>
+        <v>2.357976666666667</v>
       </c>
       <c r="N2">
-        <v>1.90269015534024</v>
+        <v>7.07393</v>
       </c>
       <c r="O2">
-        <v>0.3741908454855937</v>
+        <v>0.4138076229453391</v>
       </c>
       <c r="P2">
-        <v>0.3741908454855937</v>
+        <v>0.4138076229453391</v>
       </c>
       <c r="Q2">
-        <v>6.108373302489151</v>
+        <v>0.4307040879722222</v>
       </c>
       <c r="R2">
-        <v>6.108373302489151</v>
+        <v>3.87633679175</v>
       </c>
       <c r="S2">
-        <v>0.3741908454855937</v>
+        <v>0.02134164251152203</v>
       </c>
       <c r="T2">
-        <v>0.3741908454855937</v>
+        <v>0.02134164251152203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.2103878213407</v>
+        <v>0.1826583333333333</v>
       </c>
       <c r="H3">
-        <v>3.2103878213407</v>
+        <v>0.547975</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05157382640662736</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05157382640662736</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.63918276471039</v>
+        <v>1.653161666666667</v>
       </c>
       <c r="N3">
-        <v>1.63918276471039</v>
+        <v>4.959485</v>
       </c>
       <c r="O3">
-        <v>0.3223684018708297</v>
+        <v>0.2901177561670903</v>
       </c>
       <c r="P3">
-        <v>0.3223684018708297</v>
+        <v>0.2901177561670903</v>
       </c>
       <c r="Q3">
-        <v>5.262412384777814</v>
+        <v>0.3019637547638889</v>
       </c>
       <c r="R3">
-        <v>5.262412384777814</v>
+        <v>2.717673792875</v>
       </c>
       <c r="S3">
-        <v>0.3223684018708297</v>
+        <v>0.01496248279404176</v>
       </c>
       <c r="T3">
-        <v>0.3223684018708297</v>
+        <v>0.01496248279404176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.2103878213407</v>
+        <v>0.1826583333333333</v>
       </c>
       <c r="H4">
-        <v>3.2103878213407</v>
+        <v>0.547975</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.05157382640662736</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05157382640662736</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.332038377019989</v>
+        <v>0.33798</v>
       </c>
       <c r="N4">
-        <v>0.332038377019989</v>
+        <v>1.01394</v>
       </c>
       <c r="O4">
-        <v>0.065300028321509</v>
+        <v>0.05931301288098655</v>
       </c>
       <c r="P4">
-        <v>0.065300028321509</v>
+        <v>0.05931301288098655</v>
       </c>
       <c r="Q4">
-        <v>1.065971961802705</v>
+        <v>0.0617348635</v>
       </c>
       <c r="R4">
-        <v>1.065971961802705</v>
+        <v>0.5556137715</v>
       </c>
       <c r="S4">
-        <v>0.065300028321509</v>
+        <v>0.003058999029978053</v>
       </c>
       <c r="T4">
-        <v>0.065300028321509</v>
+        <v>0.003058999029978053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.2103878213407</v>
+        <v>0.1826583333333333</v>
       </c>
       <c r="H5">
-        <v>3.2103878213407</v>
+        <v>0.547975</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.05157382640662736</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.05157382640662736</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.445409051011315</v>
+        <v>0.5223656666666666</v>
       </c>
       <c r="N5">
-        <v>0.445409051011315</v>
+        <v>1.567097</v>
       </c>
       <c r="O5">
-        <v>0.08759596979943182</v>
+        <v>0.09167134598374201</v>
       </c>
       <c r="P5">
-        <v>0.08759596979943182</v>
+        <v>0.09167134598374201</v>
       </c>
       <c r="Q5">
-        <v>1.429935792881644</v>
+        <v>0.09541444206388888</v>
       </c>
       <c r="R5">
-        <v>1.429935792881644</v>
+        <v>0.858729978575</v>
       </c>
       <c r="S5">
-        <v>0.08759596979943182</v>
+        <v>0.004727842084227387</v>
       </c>
       <c r="T5">
-        <v>0.08759596979943182</v>
+        <v>0.004727842084227387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1826583333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.547975</v>
+      </c>
+      <c r="I6">
+        <v>0.05157382640662736</v>
+      </c>
+      <c r="J6">
+        <v>0.05157382640662736</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.8267596666666667</v>
+      </c>
+      <c r="N6">
+        <v>2.480279</v>
+      </c>
+      <c r="O6">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="P6">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="Q6">
+        <v>0.1510145427805556</v>
+      </c>
+      <c r="R6">
+        <v>1.359130885025</v>
+      </c>
+      <c r="S6">
+        <v>0.007482859986858131</v>
+      </c>
+      <c r="T6">
+        <v>0.007482859986858131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.325406</v>
+      </c>
+      <c r="H7">
+        <v>9.976217999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9389328624967765</v>
+      </c>
+      <c r="J7">
+        <v>0.9389328624967767</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.357976666666667</v>
+      </c>
+      <c r="N7">
+        <v>7.07393</v>
+      </c>
+      <c r="O7">
+        <v>0.4138076229453391</v>
+      </c>
+      <c r="P7">
+        <v>0.4138076229453391</v>
+      </c>
+      <c r="Q7">
+        <v>7.841229755193332</v>
+      </c>
+      <c r="R7">
+        <v>70.57106779674</v>
+      </c>
+      <c r="S7">
+        <v>0.3885375759350541</v>
+      </c>
+      <c r="T7">
+        <v>0.3885375759350541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.325406</v>
+      </c>
+      <c r="H8">
+        <v>9.976217999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9389328624967765</v>
+      </c>
+      <c r="J8">
+        <v>0.9389328624967767</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.653161666666667</v>
+      </c>
+      <c r="N8">
+        <v>4.959485</v>
+      </c>
+      <c r="O8">
+        <v>0.2901177561670903</v>
+      </c>
+      <c r="P8">
+        <v>0.2901177561670903</v>
+      </c>
+      <c r="Q8">
+        <v>5.497433725303333</v>
+      </c>
+      <c r="R8">
+        <v>49.47690352772999</v>
+      </c>
+      <c r="S8">
+        <v>0.272401095259108</v>
+      </c>
+      <c r="T8">
+        <v>0.272401095259108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.325406</v>
+      </c>
+      <c r="H9">
+        <v>9.976217999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9389328624967765</v>
+      </c>
+      <c r="J9">
+        <v>0.9389328624967767</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.33798</v>
+      </c>
+      <c r="N9">
+        <v>1.01394</v>
+      </c>
+      <c r="O9">
+        <v>0.05931301288098655</v>
+      </c>
+      <c r="P9">
+        <v>0.05931301288098655</v>
+      </c>
+      <c r="Q9">
+        <v>1.12392071988</v>
+      </c>
+      <c r="R9">
+        <v>10.11528647892</v>
+      </c>
+      <c r="S9">
+        <v>0.05569093696765288</v>
+      </c>
+      <c r="T9">
+        <v>0.05569093696765289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.325406</v>
+      </c>
+      <c r="H10">
+        <v>9.976217999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.9389328624967765</v>
+      </c>
+      <c r="J10">
+        <v>0.9389328624967767</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5223656666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.567097</v>
+      </c>
+      <c r="O10">
+        <v>0.09167134598374201</v>
+      </c>
+      <c r="P10">
+        <v>0.09167134598374201</v>
+      </c>
+      <c r="Q10">
+        <v>1.737077922127333</v>
+      </c>
+      <c r="R10">
+        <v>15.633701299146</v>
+      </c>
+      <c r="S10">
+        <v>0.08607323929344726</v>
+      </c>
+      <c r="T10">
+        <v>0.08607323929344728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.325406</v>
+      </c>
+      <c r="H11">
+        <v>9.976217999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9389328624967765</v>
+      </c>
+      <c r="J11">
+        <v>0.9389328624967767</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.8267596666666667</v>
+      </c>
+      <c r="N11">
+        <v>2.480279</v>
+      </c>
+      <c r="O11">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="P11">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="Q11">
+        <v>2.749311556091333</v>
+      </c>
+      <c r="R11">
+        <v>24.743804004822</v>
+      </c>
+      <c r="S11">
+        <v>0.1362300150415144</v>
+      </c>
+      <c r="T11">
+        <v>0.1362300150415144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.03362233333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.100867</v>
+      </c>
+      <c r="I12">
+        <v>0.009493311096596162</v>
+      </c>
+      <c r="J12">
+        <v>0.009493311096596164</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.357976666666667</v>
+      </c>
+      <c r="N12">
+        <v>7.07393</v>
+      </c>
+      <c r="O12">
+        <v>0.4138076229453391</v>
+      </c>
+      <c r="P12">
+        <v>0.4138076229453391</v>
+      </c>
+      <c r="Q12">
+        <v>0.07928067747888889</v>
+      </c>
+      <c r="R12">
+        <v>0.7135260973100001</v>
+      </c>
+      <c r="S12">
+        <v>0.003928404498763069</v>
+      </c>
+      <c r="T12">
+        <v>0.00392840449876307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.03362233333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.100867</v>
+      </c>
+      <c r="I13">
+        <v>0.009493311096596162</v>
+      </c>
+      <c r="J13">
+        <v>0.009493311096596164</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.653161666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.959485</v>
+      </c>
+      <c r="O13">
+        <v>0.2901177561670903</v>
+      </c>
+      <c r="P13">
+        <v>0.2901177561670903</v>
+      </c>
+      <c r="Q13">
+        <v>0.05558315261055556</v>
+      </c>
+      <c r="R13">
+        <v>0.5002483734950001</v>
+      </c>
+      <c r="S13">
+        <v>0.002754178113940619</v>
+      </c>
+      <c r="T13">
+        <v>0.002754178113940619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.03362233333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.100867</v>
+      </c>
+      <c r="I14">
+        <v>0.009493311096596162</v>
+      </c>
+      <c r="J14">
+        <v>0.009493311096596164</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.33798</v>
+      </c>
+      <c r="N14">
+        <v>1.01394</v>
+      </c>
+      <c r="O14">
+        <v>0.05931301288098655</v>
+      </c>
+      <c r="P14">
+        <v>0.05931301288098655</v>
+      </c>
+      <c r="Q14">
+        <v>0.01136367622</v>
+      </c>
+      <c r="R14">
+        <v>0.10227308598</v>
+      </c>
+      <c r="S14">
+        <v>0.0005630768833556207</v>
+      </c>
+      <c r="T14">
+        <v>0.0005630768833556209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3.2103878213407</v>
-      </c>
-      <c r="H6">
-        <v>3.2103878213407</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.765491796028879</v>
-      </c>
-      <c r="N6">
-        <v>0.765491796028879</v>
-      </c>
-      <c r="O6">
-        <v>0.1505447545226356</v>
-      </c>
-      <c r="P6">
-        <v>0.1505447545226356</v>
-      </c>
-      <c r="Q6">
-        <v>2.457525539307333</v>
-      </c>
-      <c r="R6">
-        <v>2.457525539307333</v>
-      </c>
-      <c r="S6">
-        <v>0.1505447545226356</v>
-      </c>
-      <c r="T6">
-        <v>0.1505447545226356</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.03362233333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.100867</v>
+      </c>
+      <c r="I15">
+        <v>0.009493311096596162</v>
+      </c>
+      <c r="J15">
+        <v>0.009493311096596164</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5223656666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.567097</v>
+      </c>
+      <c r="O15">
+        <v>0.09167134598374201</v>
+      </c>
+      <c r="P15">
+        <v>0.09167134598374201</v>
+      </c>
+      <c r="Q15">
+        <v>0.01756315256655555</v>
+      </c>
+      <c r="R15">
+        <v>0.158068373099</v>
+      </c>
+      <c r="S15">
+        <v>0.000870264606067364</v>
+      </c>
+      <c r="T15">
+        <v>0.0008702646060673642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.03362233333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.100867</v>
+      </c>
+      <c r="I16">
+        <v>0.009493311096596162</v>
+      </c>
+      <c r="J16">
+        <v>0.009493311096596164</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.8267596666666667</v>
+      </c>
+      <c r="N16">
+        <v>2.480279</v>
+      </c>
+      <c r="O16">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="P16">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="Q16">
+        <v>0.02779758909922223</v>
+      </c>
+      <c r="R16">
+        <v>0.250178301893</v>
+      </c>
+      <c r="S16">
+        <v>0.001377386994469491</v>
+      </c>
+      <c r="T16">
+        <v>0.001377386994469491</v>
       </c>
     </row>
   </sheetData>
